--- a/UploadData/Sigin.xlsx
+++ b/UploadData/Sigin.xlsx
@@ -38,10 +38,10 @@
     <t>kinjal.joshi@kiwiqa.com</t>
   </si>
   <si>
-    <t>maurya</t>
-  </si>
-  <si>
     <t>kinjal</t>
+  </si>
+  <si>
+    <t>maury</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/UploadData/Sigin.xlsx
+++ b/UploadData/Sigin.xlsx
@@ -41,7 +41,7 @@
     <t>kinjal</t>
   </si>
   <si>
-    <t>maury</t>
+    <t>maurya</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
